--- a/extensions/extensions.extension/Super-Constraints.tab/Collection.panel/CollectAll.pushbutton/Revit-Categories-2022_arc.xlsx
+++ b/extensions/extensions.extension/Super-Constraints.tab/Collection.panel/CollectAll.pushbutton/Revit-Categories-2022_arc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bachelor_thesis\super-constraints\extensions\extensions.extension\Super-Constraints.tab\Super-Constraints.panel\Collect.pushbutton\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\super-constraints\extensions\extensions.extension\Super-Constraints.tab\Collection.panel\CollectAll.pushbutton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1F6F65-4B11-41F1-9996-4AF18392C8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBC2111-DC96-4D3F-BB1A-8F88CDB52D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15915" windowHeight="15255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="13392" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="827">
   <si>
     <t>OST_PointClouds</t>
   </si>
@@ -2504,9 +2504,6 @@
   </si>
   <si>
     <t>Support</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>Yes</t>
@@ -2848,18 +2845,18 @@
   <dimension ref="A1:E414"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D386" sqref="D386"/>
+      <selection activeCell="C399" sqref="C399"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="43.6640625" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>821</v>
       </c>
@@ -2876,7 +2873,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2887,7 +2884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2898,7 +2895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2909,7 +2906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2919,11 +2916,8 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2933,11 +2927,8 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2947,11 +2938,8 @@
       <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2961,11 +2949,8 @@
       <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2975,11 +2960,8 @@
       <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2989,11 +2971,8 @@
       <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -3003,11 +2982,8 @@
       <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -3017,11 +2993,8 @@
       <c r="C12" t="s">
         <v>21</v>
       </c>
-      <c r="D12" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -3031,11 +3004,8 @@
       <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -3045,11 +3015,8 @@
       <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="D14" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -3059,11 +3026,8 @@
       <c r="C15" t="s">
         <v>27</v>
       </c>
-      <c r="D15" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -3073,11 +3037,8 @@
       <c r="C16" t="s">
         <v>29</v>
       </c>
-      <c r="D16" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -3087,11 +3048,8 @@
       <c r="C17" t="s">
         <v>31</v>
       </c>
-      <c r="D17" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -3101,11 +3059,8 @@
       <c r="C18" t="s">
         <v>33</v>
       </c>
-      <c r="D18" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -3115,11 +3070,8 @@
       <c r="C19" t="s">
         <v>35</v>
       </c>
-      <c r="D19" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -3129,11 +3081,8 @@
       <c r="C20" t="s">
         <v>37</v>
       </c>
-      <c r="D20" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -3143,11 +3092,8 @@
       <c r="C21" t="s">
         <v>39</v>
       </c>
-      <c r="D21" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -3157,11 +3103,8 @@
       <c r="C22" t="s">
         <v>41</v>
       </c>
-      <c r="D22" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -3171,11 +3114,8 @@
       <c r="C23" t="s">
         <v>43</v>
       </c>
-      <c r="D23" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -3185,11 +3125,8 @@
       <c r="C24" t="s">
         <v>45</v>
       </c>
-      <c r="D24" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -3199,11 +3136,8 @@
       <c r="C25" t="s">
         <v>47</v>
       </c>
-      <c r="D25" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -3213,11 +3147,8 @@
       <c r="C26" t="s">
         <v>49</v>
       </c>
-      <c r="D26" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -3227,11 +3158,8 @@
       <c r="C27" t="s">
         <v>51</v>
       </c>
-      <c r="D27" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -3241,11 +3169,8 @@
       <c r="C28" t="s">
         <v>53</v>
       </c>
-      <c r="D28" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -3255,11 +3180,8 @@
       <c r="C29" t="s">
         <v>55</v>
       </c>
-      <c r="D29" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -3269,11 +3191,8 @@
       <c r="C30" t="s">
         <v>57</v>
       </c>
-      <c r="D30" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -3283,11 +3202,8 @@
       <c r="C31" t="s">
         <v>59</v>
       </c>
-      <c r="D31" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -3297,11 +3213,8 @@
       <c r="C32" t="s">
         <v>61</v>
       </c>
-      <c r="D32" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -3311,11 +3224,8 @@
       <c r="C33" t="s">
         <v>63</v>
       </c>
-      <c r="D33" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -3325,11 +3235,8 @@
       <c r="C34" t="s">
         <v>65</v>
       </c>
-      <c r="D34" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -3339,11 +3246,8 @@
       <c r="C35" t="s">
         <v>67</v>
       </c>
-      <c r="D35" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>68</v>
       </c>
@@ -3353,11 +3257,8 @@
       <c r="C36" t="s">
         <v>69</v>
       </c>
-      <c r="D36" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -3368,7 +3269,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>72</v>
       </c>
@@ -3378,11 +3279,8 @@
       <c r="C38" t="s">
         <v>73</v>
       </c>
-      <c r="D38" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>74</v>
       </c>
@@ -3393,7 +3291,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>76</v>
       </c>
@@ -3404,7 +3302,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -3415,7 +3313,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -3426,7 +3324,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -3437,7 +3335,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -3448,7 +3346,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>86</v>
       </c>
@@ -3459,7 +3357,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -3470,7 +3368,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>90</v>
       </c>
@@ -3481,7 +3379,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>92</v>
       </c>
@@ -3492,7 +3390,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>94</v>
       </c>
@@ -3502,11 +3400,8 @@
       <c r="C49" t="s">
         <v>95</v>
       </c>
-      <c r="D49" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -3516,11 +3411,8 @@
       <c r="C50" t="s">
         <v>97</v>
       </c>
-      <c r="D50" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>98</v>
       </c>
@@ -3531,7 +3423,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>100</v>
       </c>
@@ -3542,7 +3434,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>102</v>
       </c>
@@ -3553,7 +3445,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>104</v>
       </c>
@@ -3564,7 +3456,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>106</v>
       </c>
@@ -3574,11 +3466,8 @@
       <c r="C55" t="s">
         <v>107</v>
       </c>
-      <c r="D55" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>108</v>
       </c>
@@ -3588,11 +3477,8 @@
       <c r="C56" t="s">
         <v>109</v>
       </c>
-      <c r="D56" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>110</v>
       </c>
@@ -3603,7 +3489,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>112</v>
       </c>
@@ -3614,7 +3500,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>114</v>
       </c>
@@ -3625,7 +3511,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -3636,7 +3522,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>118</v>
       </c>
@@ -3647,7 +3533,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>120</v>
       </c>
@@ -3658,7 +3544,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>122</v>
       </c>
@@ -3669,7 +3555,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>124</v>
       </c>
@@ -3680,7 +3566,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>126</v>
       </c>
@@ -3691,7 +3577,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>128</v>
       </c>
@@ -3702,7 +3588,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>130</v>
       </c>
@@ -3713,7 +3599,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>132</v>
       </c>
@@ -3724,7 +3610,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>134</v>
       </c>
@@ -3735,7 +3621,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>136</v>
       </c>
@@ -3746,7 +3632,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>138</v>
       </c>
@@ -3756,11 +3642,8 @@
       <c r="C71" t="s">
         <v>139</v>
       </c>
-      <c r="D71" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>140</v>
       </c>
@@ -3770,11 +3653,8 @@
       <c r="C72" t="s">
         <v>141</v>
       </c>
-      <c r="D72" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>142</v>
       </c>
@@ -3785,7 +3665,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>144</v>
       </c>
@@ -3795,11 +3675,8 @@
       <c r="C74" t="s">
         <v>145</v>
       </c>
-      <c r="D74" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>146</v>
       </c>
@@ -3809,11 +3686,8 @@
       <c r="C75" t="s">
         <v>147</v>
       </c>
-      <c r="D75" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>148</v>
       </c>
@@ -3824,7 +3698,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>150</v>
       </c>
@@ -3834,11 +3708,8 @@
       <c r="C77" t="s">
         <v>151</v>
       </c>
-      <c r="D77" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>152</v>
       </c>
@@ -3849,7 +3720,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>154</v>
       </c>
@@ -3860,7 +3731,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>156</v>
       </c>
@@ -3871,7 +3742,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>158</v>
       </c>
@@ -3882,7 +3753,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>160</v>
       </c>
@@ -3892,11 +3763,8 @@
       <c r="C82" t="s">
         <v>161</v>
       </c>
-      <c r="D82" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>162</v>
       </c>
@@ -3907,7 +3775,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>164</v>
       </c>
@@ -3918,7 +3786,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>166</v>
       </c>
@@ -3929,7 +3797,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>168</v>
       </c>
@@ -3940,7 +3808,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>170</v>
       </c>
@@ -3950,11 +3818,8 @@
       <c r="C87" t="s">
         <v>171</v>
       </c>
-      <c r="D87" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>172</v>
       </c>
@@ -3964,11 +3829,8 @@
       <c r="C88" t="s">
         <v>173</v>
       </c>
-      <c r="D88" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>174</v>
       </c>
@@ -3979,7 +3841,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>176</v>
       </c>
@@ -3990,7 +3852,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>178</v>
       </c>
@@ -4001,7 +3863,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>180</v>
       </c>
@@ -4011,11 +3873,8 @@
       <c r="C92" t="s">
         <v>181</v>
       </c>
-      <c r="D92" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>182</v>
       </c>
@@ -4025,11 +3884,8 @@
       <c r="C93" t="s">
         <v>183</v>
       </c>
-      <c r="D93" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>184</v>
       </c>
@@ -4039,11 +3895,8 @@
       <c r="C94" t="s">
         <v>185</v>
       </c>
-      <c r="D94" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>186</v>
       </c>
@@ -4054,7 +3907,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>188</v>
       </c>
@@ -4065,7 +3918,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>190</v>
       </c>
@@ -4075,11 +3928,8 @@
       <c r="C97" t="s">
         <v>191</v>
       </c>
-      <c r="D97" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>192</v>
       </c>
@@ -4090,7 +3940,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>194</v>
       </c>
@@ -4101,7 +3951,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>196</v>
       </c>
@@ -4112,7 +3962,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>198</v>
       </c>
@@ -4123,7 +3973,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>200</v>
       </c>
@@ -4134,7 +3984,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>202</v>
       </c>
@@ -4145,7 +3995,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>204</v>
       </c>
@@ -4156,7 +4006,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>206</v>
       </c>
@@ -4167,7 +4017,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>208</v>
       </c>
@@ -4178,7 +4028,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>210</v>
       </c>
@@ -4189,7 +4039,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>212</v>
       </c>
@@ -4199,11 +4049,8 @@
       <c r="C108" t="s">
         <v>213</v>
       </c>
-      <c r="D108" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>214</v>
       </c>
@@ -4214,7 +4061,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>216</v>
       </c>
@@ -4225,7 +4072,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>218</v>
       </c>
@@ -4236,7 +4083,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>220</v>
       </c>
@@ -4247,7 +4094,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>222</v>
       </c>
@@ -4257,11 +4104,8 @@
       <c r="C113" t="s">
         <v>223</v>
       </c>
-      <c r="D113" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>224</v>
       </c>
@@ -4272,7 +4116,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>226</v>
       </c>
@@ -4283,7 +4127,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>228</v>
       </c>
@@ -4294,7 +4138,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>230</v>
       </c>
@@ -4305,7 +4149,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>232</v>
       </c>
@@ -4316,7 +4160,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>234</v>
       </c>
@@ -4327,7 +4171,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>236</v>
       </c>
@@ -4338,7 +4182,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>238</v>
       </c>
@@ -4349,7 +4193,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>240</v>
       </c>
@@ -4360,7 +4204,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>242</v>
       </c>
@@ -4370,11 +4214,8 @@
       <c r="C123" t="s">
         <v>243</v>
       </c>
-      <c r="D123" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>244</v>
       </c>
@@ -4385,7 +4226,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>246</v>
       </c>
@@ -4395,11 +4236,8 @@
       <c r="C125" t="s">
         <v>247</v>
       </c>
-      <c r="D125" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>248</v>
       </c>
@@ -4410,7 +4248,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>250</v>
       </c>
@@ -4421,7 +4259,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>252</v>
       </c>
@@ -4432,7 +4270,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>254</v>
       </c>
@@ -4443,7 +4281,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>256</v>
       </c>
@@ -4453,11 +4291,8 @@
       <c r="C130" t="s">
         <v>257</v>
       </c>
-      <c r="D130" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>258</v>
       </c>
@@ -4468,7 +4303,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>260</v>
       </c>
@@ -4479,7 +4314,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>262</v>
       </c>
@@ -4489,11 +4324,8 @@
       <c r="C133" t="s">
         <v>263</v>
       </c>
-      <c r="D133" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>264</v>
       </c>
@@ -4504,7 +4336,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>266</v>
       </c>
@@ -4514,11 +4346,8 @@
       <c r="C135" t="s">
         <v>267</v>
       </c>
-      <c r="D135" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>268</v>
       </c>
@@ -4529,7 +4358,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>270</v>
       </c>
@@ -4540,7 +4369,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>272</v>
       </c>
@@ -4551,7 +4380,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>274</v>
       </c>
@@ -4562,7 +4391,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>276</v>
       </c>
@@ -4572,11 +4401,8 @@
       <c r="C140" t="s">
         <v>277</v>
       </c>
-      <c r="D140" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>278</v>
       </c>
@@ -4587,7 +4413,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>280</v>
       </c>
@@ -4598,7 +4424,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>282</v>
       </c>
@@ -4608,11 +4434,8 @@
       <c r="C143" t="s">
         <v>283</v>
       </c>
-      <c r="D143" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>284</v>
       </c>
@@ -4623,7 +4446,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>286</v>
       </c>
@@ -4634,7 +4457,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>288</v>
       </c>
@@ -4644,11 +4467,8 @@
       <c r="C146" t="s">
         <v>289</v>
       </c>
-      <c r="D146" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>290</v>
       </c>
@@ -4659,7 +4479,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>292</v>
       </c>
@@ -4669,11 +4489,8 @@
       <c r="C148" t="s">
         <v>293</v>
       </c>
-      <c r="D148" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>294</v>
       </c>
@@ -4684,7 +4501,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>296</v>
       </c>
@@ -4694,11 +4511,8 @@
       <c r="C150" t="s">
         <v>297</v>
       </c>
-      <c r="D150" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>298</v>
       </c>
@@ -4709,7 +4523,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>300</v>
       </c>
@@ -4720,7 +4534,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>302</v>
       </c>
@@ -4731,7 +4545,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>304</v>
       </c>
@@ -4741,11 +4555,8 @@
       <c r="C154" t="s">
         <v>305</v>
       </c>
-      <c r="D154" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>306</v>
       </c>
@@ -4756,7 +4567,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>308</v>
       </c>
@@ -4767,7 +4578,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>310</v>
       </c>
@@ -4778,7 +4589,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>312</v>
       </c>
@@ -4789,7 +4600,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>314</v>
       </c>
@@ -4799,11 +4610,8 @@
       <c r="C159" t="s">
         <v>315</v>
       </c>
-      <c r="D159" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>316</v>
       </c>
@@ -4814,7 +4622,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>318</v>
       </c>
@@ -4824,11 +4632,8 @@
       <c r="C161" t="s">
         <v>319</v>
       </c>
-      <c r="D161" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>320</v>
       </c>
@@ -4839,7 +4644,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>322</v>
       </c>
@@ -4850,7 +4655,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>324</v>
       </c>
@@ -4861,7 +4666,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>326</v>
       </c>
@@ -4872,7 +4677,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>328</v>
       </c>
@@ -4882,11 +4687,8 @@
       <c r="C166" t="s">
         <v>329</v>
       </c>
-      <c r="D166" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>330</v>
       </c>
@@ -4897,7 +4699,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>332</v>
       </c>
@@ -4908,7 +4710,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>334</v>
       </c>
@@ -4918,11 +4720,8 @@
       <c r="C169" t="s">
         <v>335</v>
       </c>
-      <c r="D169" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>336</v>
       </c>
@@ -4932,11 +4731,8 @@
       <c r="C170" t="s">
         <v>337</v>
       </c>
-      <c r="D170" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>338</v>
       </c>
@@ -4946,11 +4742,8 @@
       <c r="C171" t="s">
         <v>339</v>
       </c>
-      <c r="D171" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>340</v>
       </c>
@@ -4960,11 +4753,8 @@
       <c r="C172" t="s">
         <v>341</v>
       </c>
-      <c r="D172" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>342</v>
       </c>
@@ -4975,7 +4765,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>344</v>
       </c>
@@ -4986,7 +4776,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>346</v>
       </c>
@@ -4997,7 +4787,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>348</v>
       </c>
@@ -5008,7 +4798,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>350</v>
       </c>
@@ -5019,7 +4809,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>352</v>
       </c>
@@ -5030,7 +4820,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>354</v>
       </c>
@@ -5041,7 +4831,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>356</v>
       </c>
@@ -5052,7 +4842,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>358</v>
       </c>
@@ -5063,7 +4853,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>360</v>
       </c>
@@ -5074,7 +4864,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>362</v>
       </c>
@@ -5085,7 +4875,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>364</v>
       </c>
@@ -5096,7 +4886,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>366</v>
       </c>
@@ -5107,7 +4897,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>368</v>
       </c>
@@ -5118,7 +4908,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>370</v>
       </c>
@@ -5129,7 +4919,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>372</v>
       </c>
@@ -5140,7 +4930,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>374</v>
       </c>
@@ -5151,7 +4941,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>376</v>
       </c>
@@ -5162,7 +4952,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>378</v>
       </c>
@@ -5172,11 +4962,8 @@
       <c r="C191" t="s">
         <v>379</v>
       </c>
-      <c r="D191" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>380</v>
       </c>
@@ -5186,11 +4973,8 @@
       <c r="C192" t="s">
         <v>381</v>
       </c>
-      <c r="D192" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>382</v>
       </c>
@@ -5201,7 +4985,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>384</v>
       </c>
@@ -5212,7 +4996,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>386</v>
       </c>
@@ -5223,7 +5007,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>388</v>
       </c>
@@ -5234,7 +5018,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>390</v>
       </c>
@@ -5245,7 +5029,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>392</v>
       </c>
@@ -5255,11 +5039,8 @@
       <c r="C198" t="s">
         <v>393</v>
       </c>
-      <c r="D198" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>394</v>
       </c>
@@ -5269,11 +5050,8 @@
       <c r="C199" t="s">
         <v>395</v>
       </c>
-      <c r="D199" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>396</v>
       </c>
@@ -5284,7 +5062,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>398</v>
       </c>
@@ -5295,7 +5073,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>400</v>
       </c>
@@ -5306,7 +5084,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>402</v>
       </c>
@@ -5317,7 +5095,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>404</v>
       </c>
@@ -5328,7 +5106,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>406</v>
       </c>
@@ -5338,11 +5116,8 @@
       <c r="C205" t="s">
         <v>407</v>
       </c>
-      <c r="D205" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>408</v>
       </c>
@@ -5353,7 +5128,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>410</v>
       </c>
@@ -5363,11 +5138,8 @@
       <c r="C207" t="s">
         <v>411</v>
       </c>
-      <c r="D207" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>412</v>
       </c>
@@ -5378,7 +5150,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>414</v>
       </c>
@@ -5389,7 +5161,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>416</v>
       </c>
@@ -5400,7 +5172,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>418</v>
       </c>
@@ -5411,7 +5183,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>420</v>
       </c>
@@ -5422,7 +5194,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>422</v>
       </c>
@@ -5433,7 +5205,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>424</v>
       </c>
@@ -5444,7 +5216,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>426</v>
       </c>
@@ -5455,7 +5227,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>428</v>
       </c>
@@ -5466,7 +5238,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>430</v>
       </c>
@@ -5477,7 +5249,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>432</v>
       </c>
@@ -5487,11 +5259,8 @@
       <c r="C218" t="s">
         <v>433</v>
       </c>
-      <c r="D218" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>434</v>
       </c>
@@ -5501,11 +5270,8 @@
       <c r="C219" t="s">
         <v>435</v>
       </c>
-      <c r="D219" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>436</v>
       </c>
@@ -5515,11 +5281,8 @@
       <c r="C220" t="s">
         <v>437</v>
       </c>
-      <c r="D220" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>438</v>
       </c>
@@ -5530,7 +5293,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>440</v>
       </c>
@@ -5541,7 +5304,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>442</v>
       </c>
@@ -5552,7 +5315,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>444</v>
       </c>
@@ -5563,7 +5326,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>446</v>
       </c>
@@ -5574,7 +5337,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>448</v>
       </c>
@@ -5585,7 +5348,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>450</v>
       </c>
@@ -5596,7 +5359,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>452</v>
       </c>
@@ -5607,7 +5370,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>454</v>
       </c>
@@ -5618,7 +5381,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>456</v>
       </c>
@@ -5629,7 +5392,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>458</v>
       </c>
@@ -5639,11 +5402,8 @@
       <c r="C231" t="s">
         <v>459</v>
       </c>
-      <c r="D231" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>460</v>
       </c>
@@ -5653,11 +5413,8 @@
       <c r="C232" t="s">
         <v>461</v>
       </c>
-      <c r="D232" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>462</v>
       </c>
@@ -5668,7 +5425,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>464</v>
       </c>
@@ -5679,10 +5436,10 @@
         <v>465</v>
       </c>
       <c r="D234" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>466</v>
       </c>
@@ -5692,11 +5449,8 @@
       <c r="C235" t="s">
         <v>467</v>
       </c>
-      <c r="D235" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>468</v>
       </c>
@@ -5707,7 +5461,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>470</v>
       </c>
@@ -5717,11 +5471,8 @@
       <c r="C237" t="s">
         <v>471</v>
       </c>
-      <c r="D237" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>472</v>
       </c>
@@ -5732,7 +5483,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>474</v>
       </c>
@@ -5743,7 +5494,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>476</v>
       </c>
@@ -5754,7 +5505,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>478</v>
       </c>
@@ -5765,7 +5516,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>480</v>
       </c>
@@ -5776,7 +5527,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>482</v>
       </c>
@@ -5787,7 +5538,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>484</v>
       </c>
@@ -5798,7 +5549,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>486</v>
       </c>
@@ -5808,11 +5559,8 @@
       <c r="C245" t="s">
         <v>487</v>
       </c>
-      <c r="D245" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>488</v>
       </c>
@@ -5823,7 +5571,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>490</v>
       </c>
@@ -5834,7 +5582,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>492</v>
       </c>
@@ -5845,7 +5593,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>494</v>
       </c>
@@ -5856,7 +5604,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>496</v>
       </c>
@@ -5866,11 +5614,8 @@
       <c r="C250" t="s">
         <v>497</v>
       </c>
-      <c r="D250" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>498</v>
       </c>
@@ -5881,7 +5626,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>500</v>
       </c>
@@ -5892,7 +5637,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>502</v>
       </c>
@@ -5903,7 +5648,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>504</v>
       </c>
@@ -5914,7 +5659,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>506</v>
       </c>
@@ -5925,7 +5670,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>508</v>
       </c>
@@ -5936,13 +5681,13 @@
         <v>509</v>
       </c>
       <c r="D256" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E256" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>510</v>
       </c>
@@ -5953,7 +5698,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>512</v>
       </c>
@@ -5963,11 +5708,8 @@
       <c r="C258" t="s">
         <v>513</v>
       </c>
-      <c r="D258" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>514</v>
       </c>
@@ -5978,13 +5720,13 @@
         <v>515</v>
       </c>
       <c r="D259" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E259" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>516</v>
       </c>
@@ -5994,11 +5736,8 @@
       <c r="C260" t="s">
         <v>517</v>
       </c>
-      <c r="D260" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>518</v>
       </c>
@@ -6009,13 +5748,13 @@
         <v>519</v>
       </c>
       <c r="D261" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E261" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>520</v>
       </c>
@@ -6025,11 +5764,8 @@
       <c r="C262" t="s">
         <v>521</v>
       </c>
-      <c r="D262" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>522</v>
       </c>
@@ -6040,7 +5776,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>524</v>
       </c>
@@ -6050,11 +5786,8 @@
       <c r="C264" t="s">
         <v>525</v>
       </c>
-      <c r="D264" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>526</v>
       </c>
@@ -6065,7 +5798,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>528</v>
       </c>
@@ -6075,11 +5808,8 @@
       <c r="C266" t="s">
         <v>529</v>
       </c>
-      <c r="D266" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>530</v>
       </c>
@@ -6090,7 +5820,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>532</v>
       </c>
@@ -6100,11 +5830,8 @@
       <c r="C268" t="s">
         <v>533</v>
       </c>
-      <c r="D268" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>534</v>
       </c>
@@ -6115,7 +5842,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>536</v>
       </c>
@@ -6125,11 +5852,8 @@
       <c r="C270" t="s">
         <v>537</v>
       </c>
-      <c r="D270" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>538</v>
       </c>
@@ -6140,7 +5864,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>540</v>
       </c>
@@ -6150,11 +5874,8 @@
       <c r="C272" t="s">
         <v>541</v>
       </c>
-      <c r="D272" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>542</v>
       </c>
@@ -6165,7 +5886,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>544</v>
       </c>
@@ -6175,11 +5896,8 @@
       <c r="C274" t="s">
         <v>545</v>
       </c>
-      <c r="D274" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>546</v>
       </c>
@@ -6190,7 +5908,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>548</v>
       </c>
@@ -6201,7 +5919,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>550</v>
       </c>
@@ -6211,11 +5929,8 @@
       <c r="C277" t="s">
         <v>551</v>
       </c>
-      <c r="D277" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>552</v>
       </c>
@@ -6226,7 +5941,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>554</v>
       </c>
@@ -6236,11 +5951,8 @@
       <c r="C279" t="s">
         <v>555</v>
       </c>
-      <c r="D279" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>556</v>
       </c>
@@ -6251,7 +5963,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>558</v>
       </c>
@@ -6262,7 +5974,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>560</v>
       </c>
@@ -6272,11 +5984,8 @@
       <c r="C282" t="s">
         <v>561</v>
       </c>
-      <c r="D282" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>562</v>
       </c>
@@ -6287,7 +5996,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>564</v>
       </c>
@@ -6298,7 +6007,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>566</v>
       </c>
@@ -6308,11 +6017,8 @@
       <c r="C285" t="s">
         <v>567</v>
       </c>
-      <c r="D285" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>568</v>
       </c>
@@ -6323,7 +6029,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>570</v>
       </c>
@@ -6334,7 +6040,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>572</v>
       </c>
@@ -6345,7 +6051,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>574</v>
       </c>
@@ -6355,11 +6061,8 @@
       <c r="C289" t="s">
         <v>575</v>
       </c>
-      <c r="D289" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>576</v>
       </c>
@@ -6370,7 +6073,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>578</v>
       </c>
@@ -6381,7 +6084,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>580</v>
       </c>
@@ -6392,7 +6095,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>582</v>
       </c>
@@ -6403,7 +6106,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>584</v>
       </c>
@@ -6414,7 +6117,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>586</v>
       </c>
@@ -6425,7 +6128,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>588</v>
       </c>
@@ -6435,11 +6138,8 @@
       <c r="C296" t="s">
         <v>589</v>
       </c>
-      <c r="D296" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>590</v>
       </c>
@@ -6449,11 +6149,8 @@
       <c r="C297" t="s">
         <v>591</v>
       </c>
-      <c r="D297" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>592</v>
       </c>
@@ -6463,11 +6160,8 @@
       <c r="C298" t="s">
         <v>593</v>
       </c>
-      <c r="D298" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="299" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>594</v>
       </c>
@@ -6477,11 +6171,8 @@
       <c r="C299" t="s">
         <v>595</v>
       </c>
-      <c r="D299" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>596</v>
       </c>
@@ -6491,11 +6182,8 @@
       <c r="C300" t="s">
         <v>597</v>
       </c>
-      <c r="D300" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>598</v>
       </c>
@@ -6505,11 +6193,8 @@
       <c r="C301" t="s">
         <v>599</v>
       </c>
-      <c r="D301" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="302" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>600</v>
       </c>
@@ -6519,11 +6204,8 @@
       <c r="C302" t="s">
         <v>601</v>
       </c>
-      <c r="D302" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="303" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>602</v>
       </c>
@@ -6533,11 +6215,8 @@
       <c r="C303" t="s">
         <v>603</v>
       </c>
-      <c r="D303" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="304" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>604</v>
       </c>
@@ -6547,11 +6226,8 @@
       <c r="C304" t="s">
         <v>605</v>
       </c>
-      <c r="D304" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="305" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>606</v>
       </c>
@@ -6561,11 +6237,8 @@
       <c r="C305" t="s">
         <v>607</v>
       </c>
-      <c r="D305" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="306" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>608</v>
       </c>
@@ -6575,11 +6248,8 @@
       <c r="C306" t="s">
         <v>609</v>
       </c>
-      <c r="D306" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="307" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>610</v>
       </c>
@@ -6589,11 +6259,8 @@
       <c r="C307" t="s">
         <v>611</v>
       </c>
-      <c r="D307" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="308" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>612</v>
       </c>
@@ -6603,11 +6270,8 @@
       <c r="C308" t="s">
         <v>613</v>
       </c>
-      <c r="D308" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="309" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>614</v>
       </c>
@@ -6618,7 +6282,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>616</v>
       </c>
@@ -6628,11 +6292,8 @@
       <c r="C310" t="s">
         <v>617</v>
       </c>
-      <c r="D310" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="311" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>618</v>
       </c>
@@ -6642,11 +6303,8 @@
       <c r="C311" t="s">
         <v>619</v>
       </c>
-      <c r="D311" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="312" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>620</v>
       </c>
@@ -6656,11 +6314,8 @@
       <c r="C312" t="s">
         <v>621</v>
       </c>
-      <c r="D312" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="313" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>622</v>
       </c>
@@ -6670,11 +6325,8 @@
       <c r="C313" t="s">
         <v>623</v>
       </c>
-      <c r="D313" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="314" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>624</v>
       </c>
@@ -6684,11 +6336,8 @@
       <c r="C314" t="s">
         <v>625</v>
       </c>
-      <c r="D314" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="315" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>626</v>
       </c>
@@ -6698,11 +6347,8 @@
       <c r="C315" t="s">
         <v>627</v>
       </c>
-      <c r="D315" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="316" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>628</v>
       </c>
@@ -6712,11 +6358,8 @@
       <c r="C316" t="s">
         <v>629</v>
       </c>
-      <c r="D316" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="317" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>630</v>
       </c>
@@ -6726,11 +6369,8 @@
       <c r="C317" t="s">
         <v>631</v>
       </c>
-      <c r="D317" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="318" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>632</v>
       </c>
@@ -6741,7 +6381,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>634</v>
       </c>
@@ -6752,7 +6392,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>636</v>
       </c>
@@ -6762,11 +6402,8 @@
       <c r="C320" t="s">
         <v>637</v>
       </c>
-      <c r="D320" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="321" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>638</v>
       </c>
@@ -6777,7 +6414,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="322" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>640</v>
       </c>
@@ -6788,7 +6425,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="323" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>642</v>
       </c>
@@ -6799,7 +6436,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="324" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>644</v>
       </c>
@@ -6810,7 +6447,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="325" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>646</v>
       </c>
@@ -6821,7 +6458,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="326" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>648</v>
       </c>
@@ -6832,7 +6469,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="327" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>650</v>
       </c>
@@ -6843,7 +6480,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="328" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>652</v>
       </c>
@@ -6854,7 +6491,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="329" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>654</v>
       </c>
@@ -6865,7 +6502,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="330" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>656</v>
       </c>
@@ -6876,7 +6513,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="331" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>658</v>
       </c>
@@ -6887,7 +6524,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="332" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>660</v>
       </c>
@@ -6898,7 +6535,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="333" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>662</v>
       </c>
@@ -6909,7 +6546,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="334" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>664</v>
       </c>
@@ -6920,7 +6557,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="335" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>666</v>
       </c>
@@ -6931,7 +6568,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="336" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>668</v>
       </c>
@@ -6942,7 +6579,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>670</v>
       </c>
@@ -6952,11 +6589,8 @@
       <c r="C337" t="s">
         <v>671</v>
       </c>
-      <c r="D337" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="338" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>672</v>
       </c>
@@ -6966,11 +6600,8 @@
       <c r="C338" t="s">
         <v>673</v>
       </c>
-      <c r="D338" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="339" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>674</v>
       </c>
@@ -6980,11 +6611,8 @@
       <c r="C339" t="s">
         <v>675</v>
       </c>
-      <c r="D339" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="340" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>676</v>
       </c>
@@ -6994,11 +6622,8 @@
       <c r="C340" t="s">
         <v>677</v>
       </c>
-      <c r="D340" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="341" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>678</v>
       </c>
@@ -7008,11 +6633,8 @@
       <c r="C341" t="s">
         <v>679</v>
       </c>
-      <c r="D341" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="342" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>680</v>
       </c>
@@ -7022,11 +6644,8 @@
       <c r="C342" t="s">
         <v>681</v>
       </c>
-      <c r="D342" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="343" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>682</v>
       </c>
@@ -7036,11 +6655,8 @@
       <c r="C343" t="s">
         <v>683</v>
       </c>
-      <c r="D343" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="344" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>684</v>
       </c>
@@ -7050,11 +6666,8 @@
       <c r="C344" t="s">
         <v>685</v>
       </c>
-      <c r="D344" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="345" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>686</v>
       </c>
@@ -7064,11 +6677,8 @@
       <c r="C345" t="s">
         <v>687</v>
       </c>
-      <c r="D345" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="346" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>688</v>
       </c>
@@ -7079,7 +6689,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>690</v>
       </c>
@@ -7090,7 +6700,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>692</v>
       </c>
@@ -7100,11 +6710,8 @@
       <c r="C348" t="s">
         <v>693</v>
       </c>
-      <c r="D348" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="349" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>694</v>
       </c>
@@ -7115,7 +6722,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>696</v>
       </c>
@@ -7126,7 +6733,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>698</v>
       </c>
@@ -7136,11 +6743,8 @@
       <c r="C351" t="s">
         <v>699</v>
       </c>
-      <c r="D351" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="352" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>700</v>
       </c>
@@ -7150,11 +6754,8 @@
       <c r="C352" t="s">
         <v>701</v>
       </c>
-      <c r="D352" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="353" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>702</v>
       </c>
@@ -7164,11 +6765,8 @@
       <c r="C353" t="s">
         <v>703</v>
       </c>
-      <c r="D353" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="354" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>704</v>
       </c>
@@ -7178,11 +6776,8 @@
       <c r="C354" t="s">
         <v>705</v>
       </c>
-      <c r="D354" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="355" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>706</v>
       </c>
@@ -7193,7 +6788,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>708</v>
       </c>
@@ -7204,7 +6799,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>710</v>
       </c>
@@ -7215,7 +6810,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>712</v>
       </c>
@@ -7225,11 +6820,8 @@
       <c r="C358" t="s">
         <v>713</v>
       </c>
-      <c r="D358" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="359" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>714</v>
       </c>
@@ -7239,11 +6831,8 @@
       <c r="C359" t="s">
         <v>715</v>
       </c>
-      <c r="D359" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="360" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>716</v>
       </c>
@@ -7253,11 +6842,8 @@
       <c r="C360" t="s">
         <v>717</v>
       </c>
-      <c r="D360" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="361" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>718</v>
       </c>
@@ -7267,11 +6853,8 @@
       <c r="C361" t="s">
         <v>719</v>
       </c>
-      <c r="D361" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="362" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>720</v>
       </c>
@@ -7281,11 +6864,8 @@
       <c r="C362" t="s">
         <v>721</v>
       </c>
-      <c r="D362" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="363" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>722</v>
       </c>
@@ -7295,11 +6875,8 @@
       <c r="C363" t="s">
         <v>723</v>
       </c>
-      <c r="D363" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="364" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>724</v>
       </c>
@@ -7310,7 +6887,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="365" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>726</v>
       </c>
@@ -7321,7 +6898,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="366" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>728</v>
       </c>
@@ -7332,7 +6909,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>730</v>
       </c>
@@ -7343,7 +6920,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="368" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>732</v>
       </c>
@@ -7353,11 +6930,8 @@
       <c r="C368" t="s">
         <v>733</v>
       </c>
-      <c r="D368" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>734</v>
       </c>
@@ -7368,7 +6942,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>736</v>
       </c>
@@ -7379,7 +6953,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>738</v>
       </c>
@@ -7389,11 +6963,8 @@
       <c r="C371" t="s">
         <v>739</v>
       </c>
-      <c r="D371" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>740</v>
       </c>
@@ -7404,7 +6975,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>742</v>
       </c>
@@ -7415,7 +6986,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>744</v>
       </c>
@@ -7426,7 +6997,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>746</v>
       </c>
@@ -7437,7 +7008,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>748</v>
       </c>
@@ -7448,7 +7019,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>750</v>
       </c>
@@ -7459,7 +7030,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>752</v>
       </c>
@@ -7470,7 +7041,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>754</v>
       </c>
@@ -7481,13 +7052,13 @@
         <v>755</v>
       </c>
       <c r="D379" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E379" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>756</v>
       </c>
@@ -7497,11 +7068,8 @@
       <c r="C380" t="s">
         <v>757</v>
       </c>
-      <c r="D380" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>758</v>
       </c>
@@ -7512,7 +7080,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>760</v>
       </c>
@@ -7523,7 +7091,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>762</v>
       </c>
@@ -7534,7 +7102,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>764</v>
       </c>
@@ -7544,11 +7112,8 @@
       <c r="C384" t="s">
         <v>765</v>
       </c>
-      <c r="D384" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>766</v>
       </c>
@@ -7558,11 +7123,8 @@
       <c r="C385" t="s">
         <v>575</v>
       </c>
-      <c r="D385" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>767</v>
       </c>
@@ -7573,10 +7135,10 @@
         <v>768</v>
       </c>
       <c r="D386" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>769</v>
       </c>
@@ -7587,10 +7149,10 @@
         <v>770</v>
       </c>
       <c r="D387" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>771</v>
       </c>
@@ -7601,13 +7163,13 @@
         <v>772</v>
       </c>
       <c r="D388" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E388" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>773</v>
       </c>
@@ -7617,11 +7179,8 @@
       <c r="C389" t="s">
         <v>774</v>
       </c>
-      <c r="D389" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>775</v>
       </c>
@@ -7631,11 +7190,8 @@
       <c r="C390" t="s">
         <v>776</v>
       </c>
-      <c r="D390" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>777</v>
       </c>
@@ -7645,11 +7201,8 @@
       <c r="C391" t="s">
         <v>778</v>
       </c>
-      <c r="D391" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>779</v>
       </c>
@@ -7659,11 +7212,8 @@
       <c r="C392" t="s">
         <v>780</v>
       </c>
-      <c r="D392" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>781</v>
       </c>
@@ -7673,11 +7223,8 @@
       <c r="C393" t="s">
         <v>782</v>
       </c>
-      <c r="D393" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>783</v>
       </c>
@@ -7687,11 +7234,8 @@
       <c r="C394" t="s">
         <v>784</v>
       </c>
-      <c r="D394" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>785</v>
       </c>
@@ -7701,11 +7245,8 @@
       <c r="C395" t="s">
         <v>786</v>
       </c>
-      <c r="D395" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>787</v>
       </c>
@@ -7715,11 +7256,8 @@
       <c r="C396" t="s">
         <v>788</v>
       </c>
-      <c r="D396" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>789</v>
       </c>
@@ -7729,11 +7267,8 @@
       <c r="C397" t="s">
         <v>790</v>
       </c>
-      <c r="D397" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>791</v>
       </c>
@@ -7743,11 +7278,8 @@
       <c r="C398" t="s">
         <v>792</v>
       </c>
-      <c r="D398" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>793</v>
       </c>
@@ -7758,10 +7290,10 @@
         <v>794</v>
       </c>
       <c r="D399" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>795</v>
       </c>
@@ -7772,7 +7304,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>797</v>
       </c>
@@ -7783,10 +7315,10 @@
         <v>798</v>
       </c>
       <c r="D401" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>799</v>
       </c>
@@ -7796,11 +7328,8 @@
       <c r="C402" t="s">
         <v>800</v>
       </c>
-      <c r="D402" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="403" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>801</v>
       </c>
@@ -7810,11 +7339,8 @@
       <c r="C403" t="s">
         <v>802</v>
       </c>
-      <c r="D403" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="404" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>803</v>
       </c>
@@ -7824,11 +7350,8 @@
       <c r="C404" t="s">
         <v>804</v>
       </c>
-      <c r="D404" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="405" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>805</v>
       </c>
@@ -7838,11 +7361,8 @@
       <c r="C405" t="s">
         <v>806</v>
       </c>
-      <c r="D405" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>807</v>
       </c>
@@ -7853,10 +7373,10 @@
         <v>808</v>
       </c>
       <c r="D406" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>809</v>
       </c>
@@ -7866,11 +7386,8 @@
       <c r="C407" t="s">
         <v>810</v>
       </c>
-      <c r="D407" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="408" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>811</v>
       </c>
@@ -7880,11 +7397,8 @@
       <c r="C408" t="s">
         <v>812</v>
       </c>
-      <c r="D408" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="409" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="409" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>813</v>
       </c>
@@ -7894,11 +7408,8 @@
       <c r="C409" t="s">
         <v>814</v>
       </c>
-      <c r="D409" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="410" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="410" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>815</v>
       </c>
@@ -7908,11 +7419,8 @@
       <c r="C410" t="s">
         <v>816</v>
       </c>
-      <c r="D410" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>817</v>
       </c>
@@ -7923,10 +7431,10 @@
         <v>818</v>
       </c>
       <c r="D411" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>819</v>
       </c>
@@ -7937,31 +7445,24 @@
         <v>820</v>
       </c>
       <c r="D412" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C413" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C413" t="s">
-        <v>827</v>
-      </c>
       <c r="D413" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C414" t="s">
-        <v>465</v>
-      </c>
-      <c r="D414" t="s">
-        <v>826</v>
-      </c>
-    </row>
+        <v>825</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A1:D414" xr:uid="{B3D620E0-F0CE-4BD8-8482-9392AD525D20}">
     <filterColumn colId="3">
-      <filters>
-        <filter val="Yes"/>
-      </filters>
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7975,7 +7476,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/extensions/extensions.extension/Super-Constraints.tab/Collection.panel/CollectAll.pushbutton/Revit-Categories-2022_arc.xlsx
+++ b/extensions/extensions.extension/Super-Constraints.tab/Collection.panel/CollectAll.pushbutton/Revit-Categories-2022_arc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\super-constraints\extensions\extensions.extension\Super-Constraints.tab\Collection.panel\CollectAll.pushbutton\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bachelor_thesis\super-constraints\extensions\extensions.extension\Super-Constraints.tab\Collection.panel\CollectAll.pushbutton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBC2111-DC96-4D3F-BB1A-8F88CDB52D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6717B720-6E28-476F-9B36-4DCD3373C38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="13392" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29100" yWindow="360" windowWidth="26880" windowHeight="13845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -2841,22 +2841,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D620E0-F0CE-4BD8-8482-9392AD525D20}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E414"/>
+  <dimension ref="A1:E413"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C399" sqref="C399"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="3" max="3" width="43.6640625" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>821</v>
       </c>
@@ -2873,7 +2872,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2884,7 +2883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2895,7 +2894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2906,7 +2905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2917,7 +2916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2928,7 +2927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2939,7 +2938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2950,7 +2949,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2961,7 +2960,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2972,7 +2971,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2983,7 +2982,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2994,7 +2993,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -3005,7 +3004,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -3016,7 +3015,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -3027,7 +3026,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -3038,7 +3037,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -3049,7 +3048,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -3060,7 +3059,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -3071,7 +3070,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -3082,7 +3081,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -3093,7 +3092,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -3104,7 +3103,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -3115,7 +3114,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -3126,7 +3125,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -3137,7 +3136,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -3148,7 +3147,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -3159,7 +3158,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -3170,7 +3169,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -3181,7 +3180,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -3192,7 +3191,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -3203,7 +3202,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -3214,7 +3213,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -3225,7 +3224,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -3236,7 +3235,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -3247,7 +3246,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>68</v>
       </c>
@@ -3258,7 +3257,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -3269,7 +3268,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>72</v>
       </c>
@@ -3280,7 +3279,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>74</v>
       </c>
@@ -3291,7 +3290,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>76</v>
       </c>
@@ -3302,7 +3301,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -3313,7 +3312,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -3324,7 +3323,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -3335,7 +3334,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -3346,7 +3345,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>86</v>
       </c>
@@ -3357,7 +3356,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -3368,7 +3367,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>90</v>
       </c>
@@ -3379,7 +3378,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>92</v>
       </c>
@@ -3390,7 +3389,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>94</v>
       </c>
@@ -3401,7 +3400,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -3412,7 +3411,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>98</v>
       </c>
@@ -3423,7 +3422,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>100</v>
       </c>
@@ -3434,7 +3433,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>102</v>
       </c>
@@ -3445,7 +3444,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>104</v>
       </c>
@@ -3456,7 +3455,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>106</v>
       </c>
@@ -3467,7 +3466,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>108</v>
       </c>
@@ -3478,7 +3477,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>110</v>
       </c>
@@ -3489,7 +3488,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>112</v>
       </c>
@@ -3500,7 +3499,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>114</v>
       </c>
@@ -3511,7 +3510,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -3522,7 +3521,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>118</v>
       </c>
@@ -3533,7 +3532,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>120</v>
       </c>
@@ -3544,7 +3543,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>122</v>
       </c>
@@ -3555,7 +3554,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>124</v>
       </c>
@@ -3566,7 +3565,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>126</v>
       </c>
@@ -3577,7 +3576,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>128</v>
       </c>
@@ -3588,7 +3587,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>130</v>
       </c>
@@ -3599,7 +3598,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>132</v>
       </c>
@@ -3610,7 +3609,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>134</v>
       </c>
@@ -3621,7 +3620,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>136</v>
       </c>
@@ -3632,7 +3631,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>138</v>
       </c>
@@ -3643,7 +3642,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>140</v>
       </c>
@@ -3654,7 +3653,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>142</v>
       </c>
@@ -3665,7 +3664,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>144</v>
       </c>
@@ -3676,7 +3675,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>146</v>
       </c>
@@ -3687,7 +3686,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>148</v>
       </c>
@@ -3698,7 +3697,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>150</v>
       </c>
@@ -3709,7 +3708,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>152</v>
       </c>
@@ -3720,7 +3719,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>154</v>
       </c>
@@ -3731,7 +3730,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>156</v>
       </c>
@@ -3742,7 +3741,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>158</v>
       </c>
@@ -3753,7 +3752,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>160</v>
       </c>
@@ -3764,7 +3763,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>162</v>
       </c>
@@ -3775,7 +3774,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>164</v>
       </c>
@@ -3786,7 +3785,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>166</v>
       </c>
@@ -3797,7 +3796,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>168</v>
       </c>
@@ -3808,7 +3807,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>170</v>
       </c>
@@ -3819,7 +3818,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>172</v>
       </c>
@@ -3830,7 +3829,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>174</v>
       </c>
@@ -3841,7 +3840,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>176</v>
       </c>
@@ -3852,7 +3851,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>178</v>
       </c>
@@ -3863,7 +3862,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>180</v>
       </c>
@@ -3874,7 +3873,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>182</v>
       </c>
@@ -3885,7 +3884,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>184</v>
       </c>
@@ -3896,7 +3895,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>186</v>
       </c>
@@ -3907,7 +3906,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>188</v>
       </c>
@@ -3918,7 +3917,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>190</v>
       </c>
@@ -3929,7 +3928,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>192</v>
       </c>
@@ -3940,7 +3939,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>194</v>
       </c>
@@ -3951,7 +3950,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>196</v>
       </c>
@@ -3962,7 +3961,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>198</v>
       </c>
@@ -3973,7 +3972,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>200</v>
       </c>
@@ -3984,7 +3983,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>202</v>
       </c>
@@ -3995,7 +3994,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>204</v>
       </c>
@@ -4006,7 +4005,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>206</v>
       </c>
@@ -4017,7 +4016,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>208</v>
       </c>
@@ -4028,7 +4027,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>210</v>
       </c>
@@ -4039,7 +4038,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>212</v>
       </c>
@@ -4050,7 +4049,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>214</v>
       </c>
@@ -4061,7 +4060,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>216</v>
       </c>
@@ -4072,7 +4071,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>218</v>
       </c>
@@ -4083,7 +4082,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>220</v>
       </c>
@@ -4094,7 +4093,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>222</v>
       </c>
@@ -4105,7 +4104,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>224</v>
       </c>
@@ -4116,7 +4115,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>226</v>
       </c>
@@ -4127,7 +4126,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>228</v>
       </c>
@@ -4138,7 +4137,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>230</v>
       </c>
@@ -4149,7 +4148,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>232</v>
       </c>
@@ -4160,7 +4159,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>234</v>
       </c>
@@ -4171,7 +4170,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>236</v>
       </c>
@@ -4182,7 +4181,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>238</v>
       </c>
@@ -4193,7 +4192,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>240</v>
       </c>
@@ -4204,7 +4203,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>242</v>
       </c>
@@ -4215,7 +4214,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>244</v>
       </c>
@@ -4226,7 +4225,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>246</v>
       </c>
@@ -4237,7 +4236,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>248</v>
       </c>
@@ -4248,7 +4247,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>250</v>
       </c>
@@ -4259,7 +4258,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>252</v>
       </c>
@@ -4270,7 +4269,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>254</v>
       </c>
@@ -4281,7 +4280,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>256</v>
       </c>
@@ -4292,7 +4291,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>258</v>
       </c>
@@ -4303,7 +4302,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>260</v>
       </c>
@@ -4314,7 +4313,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>262</v>
       </c>
@@ -4325,7 +4324,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>264</v>
       </c>
@@ -4336,7 +4335,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>266</v>
       </c>
@@ -4347,7 +4346,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>268</v>
       </c>
@@ -4358,7 +4357,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>270</v>
       </c>
@@ -4369,7 +4368,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>272</v>
       </c>
@@ -4380,7 +4379,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>274</v>
       </c>
@@ -4391,7 +4390,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>276</v>
       </c>
@@ -4402,7 +4401,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>278</v>
       </c>
@@ -4413,7 +4412,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>280</v>
       </c>
@@ -4424,7 +4423,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>282</v>
       </c>
@@ -4435,7 +4434,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>284</v>
       </c>
@@ -4446,7 +4445,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>286</v>
       </c>
@@ -4457,7 +4456,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>288</v>
       </c>
@@ -4468,7 +4467,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>290</v>
       </c>
@@ -4479,7 +4478,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>292</v>
       </c>
@@ -4490,7 +4489,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>294</v>
       </c>
@@ -4501,7 +4500,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>296</v>
       </c>
@@ -4512,7 +4511,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>298</v>
       </c>
@@ -4523,7 +4522,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>300</v>
       </c>
@@ -4534,7 +4533,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>302</v>
       </c>
@@ -4545,7 +4544,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>304</v>
       </c>
@@ -4556,7 +4555,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>306</v>
       </c>
@@ -4567,7 +4566,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>308</v>
       </c>
@@ -4578,7 +4577,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>310</v>
       </c>
@@ -4589,7 +4588,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>312</v>
       </c>
@@ -4600,7 +4599,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>314</v>
       </c>
@@ -4611,7 +4610,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>316</v>
       </c>
@@ -4622,7 +4621,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>318</v>
       </c>
@@ -4633,7 +4632,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>320</v>
       </c>
@@ -4644,7 +4643,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>322</v>
       </c>
@@ -4655,7 +4654,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>324</v>
       </c>
@@ -4666,7 +4665,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>326</v>
       </c>
@@ -4677,7 +4676,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>328</v>
       </c>
@@ -4688,7 +4687,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>330</v>
       </c>
@@ -4699,7 +4698,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>332</v>
       </c>
@@ -4710,7 +4709,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>334</v>
       </c>
@@ -4721,7 +4720,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>336</v>
       </c>
@@ -4732,7 +4731,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>338</v>
       </c>
@@ -4743,7 +4742,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>340</v>
       </c>
@@ -4754,7 +4753,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>342</v>
       </c>
@@ -4765,7 +4764,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>344</v>
       </c>
@@ -4776,7 +4775,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>346</v>
       </c>
@@ -4787,7 +4786,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>348</v>
       </c>
@@ -4798,7 +4797,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>350</v>
       </c>
@@ -4809,7 +4808,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>352</v>
       </c>
@@ -4820,7 +4819,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>354</v>
       </c>
@@ -4831,7 +4830,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>356</v>
       </c>
@@ -4842,7 +4841,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>358</v>
       </c>
@@ -4853,7 +4852,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>360</v>
       </c>
@@ -4864,7 +4863,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>362</v>
       </c>
@@ -4875,7 +4874,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>364</v>
       </c>
@@ -4886,7 +4885,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>366</v>
       </c>
@@ -4897,7 +4896,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>368</v>
       </c>
@@ -4908,7 +4907,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>370</v>
       </c>
@@ -4919,7 +4918,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>372</v>
       </c>
@@ -4930,7 +4929,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>374</v>
       </c>
@@ -4941,7 +4940,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>376</v>
       </c>
@@ -4952,7 +4951,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>378</v>
       </c>
@@ -4963,7 +4962,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>380</v>
       </c>
@@ -4974,7 +4973,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>382</v>
       </c>
@@ -4985,7 +4984,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>384</v>
       </c>
@@ -4996,7 +4995,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>386</v>
       </c>
@@ -5007,7 +5006,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>388</v>
       </c>
@@ -5018,7 +5017,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>390</v>
       </c>
@@ -5029,7 +5028,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>392</v>
       </c>
@@ -5040,7 +5039,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>394</v>
       </c>
@@ -5051,7 +5050,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>396</v>
       </c>
@@ -5062,7 +5061,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>398</v>
       </c>
@@ -5073,7 +5072,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>400</v>
       </c>
@@ -5084,7 +5083,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>402</v>
       </c>
@@ -5095,7 +5094,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>404</v>
       </c>
@@ -5106,7 +5105,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>406</v>
       </c>
@@ -5117,7 +5116,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>408</v>
       </c>
@@ -5128,7 +5127,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>410</v>
       </c>
@@ -5139,7 +5138,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>412</v>
       </c>
@@ -5150,7 +5149,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>414</v>
       </c>
@@ -5161,7 +5160,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>416</v>
       </c>
@@ -5172,7 +5171,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>418</v>
       </c>
@@ -5183,7 +5182,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>420</v>
       </c>
@@ -5194,7 +5193,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>422</v>
       </c>
@@ -5205,7 +5204,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>424</v>
       </c>
@@ -5216,7 +5215,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>426</v>
       </c>
@@ -5227,7 +5226,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>428</v>
       </c>
@@ -5238,7 +5237,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>430</v>
       </c>
@@ -5249,7 +5248,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>432</v>
       </c>
@@ -5260,7 +5259,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>434</v>
       </c>
@@ -5271,7 +5270,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>436</v>
       </c>
@@ -5282,7 +5281,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>438</v>
       </c>
@@ -5293,7 +5292,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>440</v>
       </c>
@@ -5304,7 +5303,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>442</v>
       </c>
@@ -5315,7 +5314,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>444</v>
       </c>
@@ -5326,7 +5325,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>446</v>
       </c>
@@ -5337,7 +5336,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>448</v>
       </c>
@@ -5348,7 +5347,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>450</v>
       </c>
@@ -5359,7 +5358,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>452</v>
       </c>
@@ -5370,7 +5369,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>454</v>
       </c>
@@ -5381,7 +5380,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>456</v>
       </c>
@@ -5392,7 +5391,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>458</v>
       </c>
@@ -5403,7 +5402,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>460</v>
       </c>
@@ -5414,7 +5413,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>462</v>
       </c>
@@ -5425,7 +5424,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>464</v>
       </c>
@@ -5439,7 +5438,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>466</v>
       </c>
@@ -5450,7 +5449,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>468</v>
       </c>
@@ -5461,7 +5460,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>470</v>
       </c>
@@ -5472,7 +5471,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>472</v>
       </c>
@@ -5483,7 +5482,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>474</v>
       </c>
@@ -5494,7 +5493,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>476</v>
       </c>
@@ -5505,7 +5504,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>478</v>
       </c>
@@ -5516,7 +5515,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>480</v>
       </c>
@@ -5527,7 +5526,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>482</v>
       </c>
@@ -5538,7 +5537,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>484</v>
       </c>
@@ -5549,7 +5548,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>486</v>
       </c>
@@ -5560,7 +5559,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>488</v>
       </c>
@@ -5571,7 +5570,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>490</v>
       </c>
@@ -5582,7 +5581,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>492</v>
       </c>
@@ -5593,7 +5592,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>494</v>
       </c>
@@ -5604,7 +5603,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>496</v>
       </c>
@@ -5615,7 +5614,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>498</v>
       </c>
@@ -5626,7 +5625,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>500</v>
       </c>
@@ -5637,7 +5636,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>502</v>
       </c>
@@ -5648,7 +5647,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>504</v>
       </c>
@@ -5659,7 +5658,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>506</v>
       </c>
@@ -5670,7 +5669,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>508</v>
       </c>
@@ -5687,7 +5686,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>510</v>
       </c>
@@ -5698,7 +5697,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>512</v>
       </c>
@@ -5709,7 +5708,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>514</v>
       </c>
@@ -5726,7 +5725,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>516</v>
       </c>
@@ -5737,7 +5736,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>518</v>
       </c>
@@ -5754,7 +5753,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>520</v>
       </c>
@@ -5765,7 +5764,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>522</v>
       </c>
@@ -5776,7 +5775,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>524</v>
       </c>
@@ -5787,7 +5786,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>526</v>
       </c>
@@ -5798,7 +5797,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>528</v>
       </c>
@@ -5809,7 +5808,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>530</v>
       </c>
@@ -5820,7 +5819,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>532</v>
       </c>
@@ -5831,7 +5830,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>534</v>
       </c>
@@ -5842,7 +5841,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>536</v>
       </c>
@@ -5853,7 +5852,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>538</v>
       </c>
@@ -5864,7 +5863,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>540</v>
       </c>
@@ -5875,7 +5874,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>542</v>
       </c>
@@ -5886,7 +5885,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>544</v>
       </c>
@@ -5897,7 +5896,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>546</v>
       </c>
@@ -5908,7 +5907,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>548</v>
       </c>
@@ -5919,7 +5918,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>550</v>
       </c>
@@ -5930,7 +5929,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>552</v>
       </c>
@@ -5941,7 +5940,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>554</v>
       </c>
@@ -5952,7 +5951,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>556</v>
       </c>
@@ -5963,7 +5962,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>558</v>
       </c>
@@ -5974,7 +5973,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>560</v>
       </c>
@@ -5985,7 +5984,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>562</v>
       </c>
@@ -5996,7 +5995,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>564</v>
       </c>
@@ -6007,7 +6006,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>566</v>
       </c>
@@ -6018,7 +6017,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>568</v>
       </c>
@@ -6029,7 +6028,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>570</v>
       </c>
@@ -6040,7 +6039,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>572</v>
       </c>
@@ -6051,7 +6050,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>574</v>
       </c>
@@ -6062,7 +6061,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>576</v>
       </c>
@@ -6073,7 +6072,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>578</v>
       </c>
@@ -6084,7 +6083,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>580</v>
       </c>
@@ -6095,7 +6094,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>582</v>
       </c>
@@ -6106,7 +6105,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>584</v>
       </c>
@@ -6117,7 +6116,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>586</v>
       </c>
@@ -6128,7 +6127,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>588</v>
       </c>
@@ -6139,7 +6138,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>590</v>
       </c>
@@ -6150,7 +6149,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>592</v>
       </c>
@@ -6161,7 +6160,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="299" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>594</v>
       </c>
@@ -6172,7 +6171,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>596</v>
       </c>
@@ -6183,7 +6182,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>598</v>
       </c>
@@ -6194,7 +6193,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="302" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>600</v>
       </c>
@@ -6205,7 +6204,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="303" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>602</v>
       </c>
@@ -6216,7 +6215,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="304" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>604</v>
       </c>
@@ -6227,7 +6226,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="305" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>606</v>
       </c>
@@ -6238,7 +6237,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="306" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>608</v>
       </c>
@@ -6249,7 +6248,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="307" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>610</v>
       </c>
@@ -6260,7 +6259,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="308" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>612</v>
       </c>
@@ -6271,7 +6270,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="309" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>614</v>
       </c>
@@ -6282,7 +6281,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="310" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>616</v>
       </c>
@@ -6293,7 +6292,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="311" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>618</v>
       </c>
@@ -6304,7 +6303,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="312" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>620</v>
       </c>
@@ -6315,7 +6314,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="313" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>622</v>
       </c>
@@ -6326,7 +6325,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="314" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>624</v>
       </c>
@@ -6337,7 +6336,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="315" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>626</v>
       </c>
@@ -6348,7 +6347,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="316" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>628</v>
       </c>
@@ -6359,7 +6358,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="317" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>630</v>
       </c>
@@ -6370,7 +6369,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="318" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>632</v>
       </c>
@@ -6381,7 +6380,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="319" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>634</v>
       </c>
@@ -6392,7 +6391,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="320" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>636</v>
       </c>
@@ -6403,7 +6402,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="321" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>638</v>
       </c>
@@ -6414,7 +6413,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="322" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>640</v>
       </c>
@@ -6425,7 +6424,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="323" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>642</v>
       </c>
@@ -6436,7 +6435,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="324" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>644</v>
       </c>
@@ -6447,7 +6446,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="325" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>646</v>
       </c>
@@ -6458,7 +6457,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="326" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>648</v>
       </c>
@@ -6469,7 +6468,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="327" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>650</v>
       </c>
@@ -6480,7 +6479,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="328" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>652</v>
       </c>
@@ -6491,7 +6490,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="329" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>654</v>
       </c>
@@ -6502,7 +6501,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="330" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>656</v>
       </c>
@@ -6513,7 +6512,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="331" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>658</v>
       </c>
@@ -6524,7 +6523,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="332" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>660</v>
       </c>
@@ -6535,7 +6534,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="333" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>662</v>
       </c>
@@ -6546,7 +6545,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="334" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>664</v>
       </c>
@@ -6557,7 +6556,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="335" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>666</v>
       </c>
@@ -6568,7 +6567,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="336" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>668</v>
       </c>
@@ -6579,7 +6578,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="337" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>670</v>
       </c>
@@ -6590,7 +6589,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="338" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>672</v>
       </c>
@@ -6601,7 +6600,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="339" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>674</v>
       </c>
@@ -6612,7 +6611,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="340" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>676</v>
       </c>
@@ -6623,7 +6622,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="341" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>678</v>
       </c>
@@ -6634,7 +6633,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="342" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>680</v>
       </c>
@@ -6645,7 +6644,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="343" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>682</v>
       </c>
@@ -6656,7 +6655,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="344" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>684</v>
       </c>
@@ -6667,7 +6666,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="345" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>686</v>
       </c>
@@ -6678,7 +6677,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="346" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>688</v>
       </c>
@@ -6689,7 +6688,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="347" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>690</v>
       </c>
@@ -6700,7 +6699,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="348" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>692</v>
       </c>
@@ -6711,7 +6710,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="349" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>694</v>
       </c>
@@ -6722,7 +6721,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="350" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>696</v>
       </c>
@@ -6733,7 +6732,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="351" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>698</v>
       </c>
@@ -6744,7 +6743,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="352" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>700</v>
       </c>
@@ -6755,7 +6754,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="353" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>702</v>
       </c>
@@ -6766,7 +6765,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="354" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>704</v>
       </c>
@@ -6777,7 +6776,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="355" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>706</v>
       </c>
@@ -6788,7 +6787,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="356" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>708</v>
       </c>
@@ -6799,7 +6798,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="357" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>710</v>
       </c>
@@ -6810,7 +6809,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="358" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>712</v>
       </c>
@@ -6821,7 +6820,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="359" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>714</v>
       </c>
@@ -6832,7 +6831,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="360" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>716</v>
       </c>
@@ -6843,7 +6842,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="361" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>718</v>
       </c>
@@ -6854,7 +6853,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="362" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>720</v>
       </c>
@@ -6865,7 +6864,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="363" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>722</v>
       </c>
@@ -6876,7 +6875,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="364" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>724</v>
       </c>
@@ -6887,7 +6886,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="365" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>726</v>
       </c>
@@ -6898,7 +6897,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="366" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>728</v>
       </c>
@@ -6909,7 +6908,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="367" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>730</v>
       </c>
@@ -6920,7 +6919,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="368" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>732</v>
       </c>
@@ -6931,7 +6930,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>734</v>
       </c>
@@ -6942,7 +6941,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>736</v>
       </c>
@@ -6953,7 +6952,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>738</v>
       </c>
@@ -6964,7 +6963,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>740</v>
       </c>
@@ -6975,7 +6974,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>742</v>
       </c>
@@ -6986,7 +6985,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>744</v>
       </c>
@@ -6997,7 +6996,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>746</v>
       </c>
@@ -7008,7 +7007,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>748</v>
       </c>
@@ -7019,7 +7018,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>750</v>
       </c>
@@ -7030,7 +7029,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>752</v>
       </c>
@@ -7041,7 +7040,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>754</v>
       </c>
@@ -7058,7 +7057,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>756</v>
       </c>
@@ -7069,7 +7068,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>758</v>
       </c>
@@ -7080,7 +7079,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>760</v>
       </c>
@@ -7091,7 +7090,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>762</v>
       </c>
@@ -7102,7 +7101,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>764</v>
       </c>
@@ -7113,7 +7112,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>766</v>
       </c>
@@ -7124,7 +7123,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>767</v>
       </c>
@@ -7138,7 +7137,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>769</v>
       </c>
@@ -7152,7 +7151,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>771</v>
       </c>
@@ -7169,7 +7168,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>773</v>
       </c>
@@ -7180,7 +7179,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>775</v>
       </c>
@@ -7191,7 +7190,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>777</v>
       </c>
@@ -7202,7 +7201,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>779</v>
       </c>
@@ -7213,7 +7212,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>781</v>
       </c>
@@ -7224,7 +7223,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>783</v>
       </c>
@@ -7235,7 +7234,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>785</v>
       </c>
@@ -7246,7 +7245,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>787</v>
       </c>
@@ -7257,7 +7256,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>789</v>
       </c>
@@ -7268,7 +7267,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>791</v>
       </c>
@@ -7279,7 +7278,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>793</v>
       </c>
@@ -7293,7 +7292,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>795</v>
       </c>
@@ -7304,7 +7303,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>797</v>
       </c>
@@ -7318,7 +7317,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="402" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>799</v>
       </c>
@@ -7329,7 +7328,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="403" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>801</v>
       </c>
@@ -7340,7 +7339,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="404" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>803</v>
       </c>
@@ -7351,7 +7350,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="405" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>805</v>
       </c>
@@ -7362,7 +7361,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>807</v>
       </c>
@@ -7376,7 +7375,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>809</v>
       </c>
@@ -7387,7 +7386,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="408" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>811</v>
       </c>
@@ -7398,7 +7397,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="409" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>813</v>
       </c>
@@ -7409,7 +7408,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="410" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>815</v>
       </c>
@@ -7420,7 +7419,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>817</v>
       </c>
@@ -7434,7 +7433,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>819</v>
       </c>
@@ -7448,7 +7447,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C413" t="s">
         <v>826</v>
       </c>
@@ -7456,15 +7455,8 @@
         <v>825</v>
       </c>
     </row>
-    <row r="414" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A1:D414" xr:uid="{B3D620E0-F0CE-4BD8-8482-9392AD525D20}">
-    <filterColumn colId="3">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D414" xr:uid="{B3D620E0-F0CE-4BD8-8482-9392AD525D20}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7476,7 +7468,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
